--- a/示波器.xlsx
+++ b/示波器.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Coding\Repos\fuck-UPE\大物实验\数据处理-公式保护branch\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Coding\Repos\fuck-UPE\大物实验\数据处理-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE6A5EE-6430-4FBB-85D1-595502A840BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF4F628-2F01-4001-A52A-742BCCD046A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>信号源</t>
   </si>
@@ -147,10 +147,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>红色格子：填入你的实验数据</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Authored by Axolyz.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -159,15 +155,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Posted on https://github.com/Axolyz/fuck-university-physics-experiments.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Welcome for stars, issues &amp; contribution.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>「この幻想郷では常識に囚われてはいけないのですね！」</t>
+    <t>Posted on https://github.com/Axolyz/fuck-nku-physics-experiments.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>红色格子：填入你的实验数据，如本身自带数据请更改</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -613,7 +609,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8 D9:D10 C13 D14:D15 D18 C18:C21 C25:D25 C28"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -633,7 +629,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -923,12 +919,12 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -938,13 +934,11 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
-        <v>34</v>
-      </c>
+      <c r="A34" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/示波器.xlsx
+++ b/示波器.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Coding\Repos\fuck-UPE\大物实验\数据处理-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF4F628-2F01-4001-A52A-742BCCD046A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8099C3-AF52-468D-8914-5C2B150D58FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>信号源</t>
   </si>
@@ -144,18 +144,6 @@
   </si>
   <si>
     <t>示波器</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Authored by Axolyz.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Licensed by GPL v3.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Welcome for stars, issues &amp; contribution.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -609,7 +597,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -626,10 +614,13 @@
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -649,57 +640,42 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
+    <row r="7" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="5">
-        <v>6.12</v>
-      </c>
-      <c r="C8" s="14">
-        <f>1/D8</f>
-        <v>1.0040160642570282</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0.996</v>
+        <v>0</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" s="5">
-        <v>6.1</v>
-      </c>
-      <c r="C9" s="5">
-        <v>1</v>
-      </c>
-      <c r="D9" s="14">
-        <f>1/C9</f>
-        <v>1</v>
+        <v>6.12</v>
+      </c>
+      <c r="C9" s="14">
+        <f>1/D9</f>
+        <v>1.0040160642570282</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.996</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" s="5">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="C10" s="5">
         <v>1</v>
@@ -710,61 +686,61 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="A11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="5">
+        <v>6</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="14">
+        <f>1/C11</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="5">
-        <v>6.08</v>
-      </c>
-      <c r="C13" s="14">
-        <f>1000/D13</f>
-        <v>50</v>
-      </c>
-      <c r="D13" s="5">
-        <v>20</v>
+        <v>6</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14" s="5">
-        <v>6.04</v>
-      </c>
-      <c r="C14" s="5">
+        <v>6.08</v>
+      </c>
+      <c r="C14" s="14">
+        <f>1000/D14</f>
         <v>50</v>
       </c>
-      <c r="D14" s="14">
-        <f>1000/C14</f>
+      <c r="D14" s="5">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15" s="5">
-        <v>6</v>
+        <v>6.04</v>
       </c>
       <c r="C15" s="5">
         <v>50</v>
@@ -775,166 +751,161 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="A16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5">
+        <v>6</v>
+      </c>
+      <c r="C16" s="5">
+        <v>50</v>
+      </c>
+      <c r="D16" s="14">
+        <f>1000/C16</f>
+        <v>20</v>
+      </c>
     </row>
     <row r="17" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B18" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C18" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D18" s="6" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="5">
-        <v>50.1</v>
-      </c>
-      <c r="C18" s="14">
-        <f>B18</f>
-        <v>50.1</v>
-      </c>
-      <c r="D18" s="15">
-        <f>AVERAGE(C18:C21)</f>
-        <v>50.057916666666664</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B19" s="5">
-        <v>100.09</v>
+        <v>50.1</v>
       </c>
       <c r="C19" s="14">
-        <f>B19/2</f>
-        <v>50.045000000000002</v>
-      </c>
-      <c r="D19" s="6"/>
+        <f>B19</f>
+        <v>50.1</v>
+      </c>
+      <c r="D19" s="15">
+        <f>AVERAGE(C19:C22)</f>
+        <v>50.057916666666664</v>
+      </c>
     </row>
     <row r="20" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B20" s="5">
-        <v>150.12</v>
+        <v>100.09</v>
       </c>
       <c r="C20" s="14">
-        <f>B20/3</f>
-        <v>50.04</v>
+        <f>B20/2</f>
+        <v>50.045000000000002</v>
       </c>
       <c r="D20" s="6"/>
     </row>
     <row r="21" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="5">
+        <v>150.12</v>
+      </c>
+      <c r="C21" s="14">
+        <f>B21/3</f>
+        <v>50.04</v>
+      </c>
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B22" s="5">
         <v>75.069999999999993</v>
       </c>
-      <c r="C21" s="14">
-        <f>2*B21/3</f>
+      <c r="C22" s="14">
+        <f>2*B22/3</f>
         <v>50.04666666666666</v>
       </c>
-      <c r="D21" s="6"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
+    <row r="25" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B25" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C25" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D25" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="11">
+    <row r="26" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="11">
         <v>4.2</v>
       </c>
-      <c r="B25" s="11">
+      <c r="B26" s="11">
         <v>6.04</v>
       </c>
-      <c r="C25" s="16">
-        <f>ASIN(A25/B25)</f>
+      <c r="C26" s="16">
+        <f>ASIN(A26/B26)</f>
         <v>0.76892660833103665</v>
       </c>
-      <c r="D25" s="16">
-        <f>DEGREES(C25)</f>
+      <c r="D26" s="16">
+        <f>DEGREES(C26)</f>
         <v>44.056249412677282</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+    <row r="27" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
+    <row r="28" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B28" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C28" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="12">
+    <row r="29" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="12">
         <v>80</v>
       </c>
-      <c r="B28" s="12">
+      <c r="B29" s="12">
         <v>620</v>
       </c>
-      <c r="C28" s="17">
-        <f>360*(A28/B28)</f>
+      <c r="C29" s="17">
+        <f>360*(A29/B29)</f>
         <v>46.451612903225808</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">

--- a/示波器.xlsx
+++ b/示波器.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Coding\Repos\fuck-UPE\大物实验\数据处理-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8099C3-AF52-468D-8914-5C2B150D58FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F5F84C-14BB-4E9B-8482-97941D52A9FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,26 +53,9 @@
     <t>读格测量</t>
   </si>
   <si>
-    <t>电压（峰峰值）/V</t>
-  </si>
-  <si>
-    <t>周期/kHz</t>
-  </si>
-  <si>
     <t>变压器</t>
   </si>
   <si>
-    <t>周期/Hz</t>
-  </si>
-  <si>
-    <t>函数发生器频率f信/Hz</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>算出的市电频率fx/Hz</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>1:1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -87,18 +70,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>频率/ms</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>李萨如图形的nx/ny</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>平均市电频率/Hz</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>2x0</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -152,6 +127,34 @@
   </si>
   <si>
     <t>红色格子：填入你的实验数据，如本身自带数据请更改</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电压（峰峰值）/V 2dp</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>频率/ms 3dp</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>算出的市电频率fx/Hz 2dp</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>周期/kHz 3sd</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>周期/Hz 3sd</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均市电频率/Hz 2dp</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数发生器频率f信/Hz 2dp</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -159,6 +162,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0.000_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -262,7 +269,7 @@
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -277,10 +284,6 @@
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -307,12 +310,30 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="11" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -596,15 +617,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.88671875" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="8.88671875" style="1"/>
@@ -612,20 +633,20 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -634,7 +655,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -646,27 +667,27 @@
         <v>0</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="17">
         <v>6.12</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="18">
         <f>1/D9</f>
         <v>1.0040160642570282</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="15">
         <v>0.996</v>
       </c>
     </row>
@@ -674,13 +695,13 @@
       <c r="A10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="17">
         <v>6.1</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="19">
         <v>1</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="16">
         <f>1/C10</f>
         <v>1</v>
       </c>
@@ -689,13 +710,13 @@
       <c r="A11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="17">
         <v>6</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="19">
         <v>1</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="16">
         <f>1/C11</f>
         <v>1</v>
       </c>
@@ -708,30 +729,30 @@
     </row>
     <row r="13" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="17">
         <v>6.08</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="18">
         <f>1000/D14</f>
         <v>50</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="15">
         <v>20</v>
       </c>
     </row>
@@ -739,13 +760,13 @@
       <c r="A15" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="17">
         <v>6.04</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="19">
         <v>50</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="16">
         <f>1000/C15</f>
         <v>20</v>
       </c>
@@ -754,13 +775,13 @@
       <c r="A16" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="17">
         <v>6</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="19">
         <v>50</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="16">
         <f>1000/C16</f>
         <v>20</v>
       </c>
@@ -772,73 +793,73 @@
       <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>16</v>
+      <c r="B18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="5">
+      <c r="A19" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="17">
         <v>50.1</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="20">
         <f>B19</f>
         <v>50.1</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="21">
         <f>AVERAGE(C19:C22)</f>
         <v>50.057916666666664</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="5">
+      <c r="A20" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="17">
         <v>100.09</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="20">
         <f>B20/2</f>
         <v>50.045000000000002</v>
       </c>
-      <c r="D20" s="6"/>
+      <c r="D20" s="5"/>
     </row>
     <row r="21" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="5">
+      <c r="A21" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="17">
         <v>150.12</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="20">
         <f>B21/3</f>
         <v>50.04</v>
       </c>
-      <c r="D21" s="6"/>
+      <c r="D21" s="5"/>
     </row>
     <row r="22" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="5">
+      <c r="A22" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="17">
         <v>75.069999999999993</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="20">
         <f>2*B22/3</f>
         <v>50.04666666666666</v>
       </c>
-      <c r="D22" s="6"/>
+      <c r="D22" s="5"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
@@ -846,70 +867,70 @@
       <c r="D23" s="2"/>
     </row>
     <row r="24" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="s">
-        <v>22</v>
+      <c r="A24" s="7" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>20</v>
+      <c r="A25" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="11">
+      <c r="A26" s="10">
         <v>4.2</v>
       </c>
-      <c r="B26" s="11">
+      <c r="B26" s="10">
         <v>6.04</v>
       </c>
-      <c r="C26" s="16">
+      <c r="C26" s="13">
         <f>ASIN(A26/B26)</f>
         <v>0.76892660833103665</v>
       </c>
-      <c r="D26" s="16">
+      <c r="D26" s="13">
         <f>DEGREES(C26)</f>
         <v>44.056249412677282</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>25</v>
+      <c r="A28" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="12">
+      <c r="A29" s="11">
         <v>80</v>
       </c>
-      <c r="B29" s="12">
+      <c r="B29" s="11">
         <v>620</v>
       </c>
-      <c r="C29" s="17">
+      <c r="C29" s="14">
         <f>360*(A29/B29)</f>
         <v>46.451612903225808</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
+      <c r="A34" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
